--- a/config_12.29/fish3d_config.xlsx
+++ b/config_12.29/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="428">
   <si>
     <t>line|行号</t>
   </si>
@@ -2498,11 +2498,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>饺子boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_jzy</t>
+    <t>金牛boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jn_gb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_jn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2668,7 +2677,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2868,6 +2877,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3150,8 +3162,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8833,10 +8845,10 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>427</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>

--- a/config_12.29/fish3d_config.xlsx
+++ b/config_12.29/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
   <si>
     <t>line|行号</t>
   </si>
@@ -2511,6 +2511,10 @@
   </si>
   <si>
     <t>by_iocn_jn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3162,8 +3166,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8895,6 +8899,9 @@
       <c r="W62" s="55">
         <v>0.1</v>
       </c>
+      <c r="X62" s="65" t="s">
+        <v>428</v>
+      </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>
       </c>

--- a/config_12.29/fish3d_config.xlsx
+++ b/config_12.29/fish3d_config.xlsx
@@ -2502,19 +2502,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_jn_gb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_jn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2607,7 +2607,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,6 +2635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,7 +2687,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2883,7 +2889,31 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3165,16 +3195,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="9" width="19.25" customWidth="1"/>
+    <col min="3" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="67" customWidth="1"/>
+    <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
@@ -4801,96 +4833,96 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="28" customFormat="1">
-      <c r="A18" s="22">
+    <row r="18" spans="1:36" s="74" customFormat="1">
+      <c r="A18" s="68">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="68">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="69">
         <v>1.53</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="69">
         <v>1.48</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="68">
         <v>0.8</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="68">
         <v>30</v>
       </c>
-      <c r="M18" s="25">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="M18" s="71">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68">
         <v>40</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="68">
         <v>4</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23">
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69">
         <v>0.7</v>
       </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
+      <c r="R18" s="72">
+        <v>1</v>
+      </c>
+      <c r="S18" s="72">
         <v>0.6</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V18" s="26">
-        <v>1</v>
-      </c>
-      <c r="W18" s="26">
+      <c r="U18" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="V18" s="72">
+        <v>1</v>
+      </c>
+      <c r="W18" s="72">
         <v>0.35</v>
       </c>
-      <c r="X18" s="51" t="s">
+      <c r="X18" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="27" t="s">
+      <c r="Z18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="28">
+      <c r="AC18" s="74">
         <v>7200</v>
       </c>
-      <c r="AD18" s="28">
+      <c r="AD18" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="28">
+      <c r="AE18" s="74">
         <v>2</v>
       </c>
-      <c r="AG18" s="27" t="s">
+      <c r="AG18" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="8" t="s">
+      <c r="AJ18" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8318,94 +8350,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="28" customFormat="1">
-      <c r="A56" s="22">
+    <row r="56" spans="1:36" s="74" customFormat="1">
+      <c r="A56" s="68">
         <v>55</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="68">
         <v>55</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="69">
         <v>1.53</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="69">
         <v>1.48</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="68">
         <v>0.8</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="68">
         <v>30</v>
       </c>
-      <c r="M56" s="25">
-        <v>1</v>
-      </c>
-      <c r="N56" s="22">
+      <c r="M56" s="71">
+        <v>1</v>
+      </c>
+      <c r="N56" s="68">
         <v>40</v>
       </c>
-      <c r="O56" s="22">
+      <c r="O56" s="68">
         <v>4</v>
       </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="23">
+      <c r="P56" s="68"/>
+      <c r="Q56" s="69">
         <v>0.7</v>
       </c>
-      <c r="R56" s="26">
-        <v>1</v>
-      </c>
-      <c r="S56" s="26">
+      <c r="R56" s="72">
+        <v>1</v>
+      </c>
+      <c r="S56" s="72">
         <v>0.6</v>
       </c>
-      <c r="T56" s="23" t="s">
+      <c r="T56" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V56" s="26">
-        <v>1</v>
-      </c>
-      <c r="W56" s="26">
+      <c r="U56" s="72">
+        <v>1.4</v>
+      </c>
+      <c r="V56" s="72">
+        <v>1</v>
+      </c>
+      <c r="W56" s="72">
         <v>0.35</v>
       </c>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="27" t="s">
+      <c r="X56" s="68"/>
+      <c r="Y56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="27" t="s">
+      <c r="Z56" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="28">
+      <c r="AC56" s="74">
         <v>7200</v>
       </c>
-      <c r="AD56" s="28">
+      <c r="AD56" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="28">
+      <c r="AE56" s="74">
         <v>2</v>
       </c>
-      <c r="AG56" s="27" t="s">
+      <c r="AG56" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="8" t="s">
+      <c r="AJ56" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8843,16 +8875,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="G62" s="67" t="s">
         <v>427</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>428</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8900,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>
